--- a/biology/Botanique/Colli_Etruschi_Viterbesi_Merlot/Colli_Etruschi_Viterbesi_Merlot.xlsx
+++ b/biology/Botanique/Colli_Etruschi_Viterbesi_Merlot/Colli_Etruschi_Viterbesi_Merlot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli Etruschi Viterbesi Merlot est un vin rouge italien de la région Latium doté d'une appellation DOC depuis le 11 septembre 1996. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Viterbe dans les communes de Viterbe, Vitorchiano, Bomarzo, Graffignano, Celleno, Civitella d'Agliano, Bagnoregio, Castiglione in Teverina, Lubriano, Vetralla, Blera, Villa San Giovanni in Tuscia, Barbarano Romano, Vejano, Oriolo Romano, Monte Romano, Tuscania, Arlena di Castro, Tessennano, Canino, Cellere, Piansano, Ischia di Castro, Farnese, Valentano, Latera, Onano, Proceno, Acquapendente, Grotte di Castro, Gradoli, Capodimonte, Marta, Montefiascone, Bolsena, San Lorenzo Nuovo, Orte et Bassano in Teverina. L’aire de production est en proximité du lac de Bolsena.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis   avec des reflets violacés
 odeur: caractéristique, agréable
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +649,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
